--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-02-28-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-02-28-2020-02-29.xlsx
@@ -14,24 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>LF_C</t>
   </si>
   <si>
-    <t>LF_FFR</t>
-  </si>
-  <si>
-    <t>B_C</t>
-  </si>
-  <si>
-    <t>B_FFR</t>
-  </si>
-  <si>
-    <t>C_B</t>
-  </si>
-  <si>
-    <t>FFR_B</t>
+    <t>A_C</t>
+  </si>
+  <si>
+    <t>FFR_A</t>
+  </si>
+  <si>
+    <t>C_A</t>
   </si>
   <si>
     <t>params</t>
@@ -395,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,57 +408,39 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>-78.29729548487525</v>
+      </c>
+      <c r="C2">
+        <v>10.19294504512097</v>
+      </c>
+      <c r="D2">
+        <v>-1.821719970535869</v>
+      </c>
+      <c r="E2">
+        <v>0.08755023134145418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>-52.91211982102836</v>
-      </c>
-      <c r="C2">
-        <v>1.486932348204779</v>
-      </c>
-      <c r="D2">
-        <v>7.89929418422809</v>
-      </c>
-      <c r="E2">
-        <v>-0.0543988719764934</v>
-      </c>
-      <c r="F2">
-        <v>0.09956349510955581</v>
-      </c>
-      <c r="G2">
-        <v>-2.449910322007549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B3">
-        <v>0.001694898998899186</v>
+        <v>1.288281721301132E-06</v>
       </c>
       <c r="C3">
-        <v>0.0002346919511260204</v>
+        <v>0</v>
       </c>
       <c r="D3">
+        <v>1.849409514420586E-12</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5.505906841563046E-11</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>2.220446049250313E-16</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-02-28-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2006-02-28-2020-02-29.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>LF_C</t>
-  </si>
-  <si>
-    <t>A_C</t>
+    <t>C_A</t>
   </si>
   <si>
     <t>FFR_A</t>
   </si>
   <si>
-    <t>C_A</t>
+    <t>LF_FFR</t>
+  </si>
+  <si>
+    <t>A_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-78.29729548487525</v>
+        <v>0.0674807823212608</v>
       </c>
       <c r="C2">
-        <v>10.19294504512097</v>
+        <v>-2.892896467187215</v>
       </c>
       <c r="D2">
-        <v>-1.821719970535869</v>
+        <v>2.154824654788232</v>
       </c>
       <c r="E2">
-        <v>0.08755023134145418</v>
+        <v>-0.1938798303935576</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.288281721301132E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.849409514420586E-12</v>
+        <v>1.71112393143602E-08</v>
       </c>
       <c r="E3">
         <v>0</v>
